--- a/Assets/Excel/Kundendatenbank.xlsx
+++ b/Assets/Excel/Kundendatenbank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\PB Programme\Projekte\TeamProjects ItchIO\Kundendatenbank\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB9B2CD-7DD5-40E9-B22C-F7DE2830E89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77270DD1-61D4-4A93-B98D-5B7E5BB19298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{847D2D25-995A-4D6D-9549-AA573668EDDE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{847D2D25-995A-4D6D-9549-AA573668EDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenbank" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="173">
   <si>
     <t>Kunde</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Inserco Brasil</t>
   </si>
   <si>
-    <t>Neodexortech</t>
-  </si>
-  <si>
     <t>Panolam</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>Spanien</t>
   </si>
   <si>
-    <t>Schweiz</t>
-  </si>
-  <si>
     <t>Deutschland</t>
   </si>
   <si>
@@ -196,13 +190,390 @@
   </si>
   <si>
     <t>ka</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paul Shaddock </t>
+  </si>
+  <si>
+    <t>BORG Manufacturing</t>
+  </si>
+  <si>
+    <t>2 Wella Way</t>
+  </si>
+  <si>
+    <t>Mr. Tang Yuen Hong</t>
+  </si>
+  <si>
+    <t>Polytec Laminates SBD.BHD</t>
+  </si>
+  <si>
+    <t>8600 Kluang, Johor</t>
+  </si>
+  <si>
+    <t>No.1, Jalan Teknologi Utama / Hawasan Perindustrian Mengkibo</t>
+  </si>
+  <si>
+    <t>Pohl</t>
+  </si>
+  <si>
+    <t>Classen Zentrale</t>
+  </si>
+  <si>
+    <t>Werner-von-Siemens-Str. 18-20</t>
+  </si>
+  <si>
+    <t>56759 Kaisersesch</t>
+  </si>
+  <si>
+    <t>König</t>
+  </si>
+  <si>
+    <t>Classen Industries GmbH</t>
+  </si>
+  <si>
+    <t>An der Birkenpfuhlheide 6</t>
+  </si>
+  <si>
+    <t>15837 Baruth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2250 Somersby NSW </t>
+  </si>
+  <si>
+    <t>Buhlmann</t>
+  </si>
+  <si>
+    <t>Hoff</t>
+  </si>
+  <si>
+    <t>Kotthoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classen Industries GmbH  </t>
+  </si>
+  <si>
+    <t>Simone Pirola</t>
+  </si>
+  <si>
+    <t>Otte</t>
+  </si>
+  <si>
+    <t>Pfleiderer Gütersloh GmbH</t>
+  </si>
+  <si>
+    <t>Carl-Bertelsmann-Str. 23</t>
+  </si>
+  <si>
+    <t>33332 Gütersloh</t>
+  </si>
+  <si>
+    <t>Röhr</t>
+  </si>
+  <si>
+    <t>Pfleiderer Holzwerkstoffe GmbH</t>
+  </si>
+  <si>
+    <t>Westring 19-21</t>
+  </si>
+  <si>
+    <t>59759 Arnsberg</t>
+  </si>
+  <si>
+    <t>Christiane Gebert</t>
+  </si>
+  <si>
+    <t>Marcel Böckler</t>
+  </si>
+  <si>
+    <t>Benjamin Krause</t>
+  </si>
+  <si>
+    <t>EGGER KUNSTSTOFFE GmbH &amp; Co KG</t>
+  </si>
+  <si>
+    <t>Im Weilandmoor 2</t>
+  </si>
+  <si>
+    <t>38518 GIFHORN</t>
+  </si>
+  <si>
+    <t>Andreas Wiek</t>
+  </si>
+  <si>
+    <t>Helmholtzstrasse 9</t>
+  </si>
+  <si>
+    <t>Hueck Engraving</t>
+  </si>
+  <si>
+    <t>41747 Viersen</t>
+  </si>
+  <si>
+    <t>Bernd Tietge</t>
+  </si>
+  <si>
+    <t>Markus Schmidt</t>
+  </si>
+  <si>
+    <t>Egger Holzwerkstoffe Brilon GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Im Kissen 19</t>
+  </si>
+  <si>
+    <t>59929 Brilon</t>
+  </si>
+  <si>
+    <t>Herrn Veile</t>
+  </si>
+  <si>
+    <t>Egger Kunststoffe GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>38518 Gifhorn</t>
+  </si>
+  <si>
+    <t>Nikolas Krämer</t>
+  </si>
+  <si>
+    <t>Marco Drochner</t>
+  </si>
+  <si>
+    <t>Egger Holzwerkstoffe Wismar GmbH &amp; Co. KG</t>
+  </si>
+  <si>
+    <t>Am Haffeld 1</t>
+  </si>
+  <si>
+    <t>23970 Wismar</t>
+  </si>
+  <si>
+    <t>Marcel Königsbauer</t>
+  </si>
+  <si>
+    <t>Daniel Beetz</t>
+  </si>
+  <si>
+    <t>Andy Schwarz</t>
+  </si>
+  <si>
+    <t>Gavin Todd</t>
+  </si>
+  <si>
+    <t>Formica Group</t>
+  </si>
+  <si>
+    <t>11 Silver Fox Way</t>
+  </si>
+  <si>
+    <t>NE27 0QJ</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Thomas Deruyter</t>
+  </si>
+  <si>
+    <t>Unilin</t>
+  </si>
+  <si>
+    <t>UNILIN, division panels</t>
+  </si>
+  <si>
+    <t>Ingelmunstersteenweg 229</t>
+  </si>
+  <si>
+    <t>8780 Oostrozebeke</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Cornelius Volk</t>
+  </si>
+  <si>
+    <t>Glunz AG</t>
+  </si>
+  <si>
+    <t>Bahnhofstraße 57</t>
+  </si>
+  <si>
+    <t>32805 Horn - Bad Meinberg</t>
+  </si>
+  <si>
+    <t>Mehmet TARAKCI</t>
+  </si>
+  <si>
+    <t>HANEX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cevizli Mah. Bağdat Caddesi No: 520 – 526  Premium Dragos / Kat: 4  Nr: 45 </t>
+  </si>
+  <si>
+    <t>34846  Maltepe</t>
+  </si>
+  <si>
+    <t>Istanbul</t>
+  </si>
+  <si>
+    <t>Denis Sijaric</t>
+  </si>
+  <si>
+    <t>Hartchromwerk Brunner AG</t>
+  </si>
+  <si>
+    <t>Martinsbruggstrasse 94</t>
+  </si>
+  <si>
+    <t>9016 St. Gallen</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Adrian Miller</t>
+  </si>
+  <si>
+    <t>Dennis Wien</t>
+  </si>
+  <si>
+    <t>Jefferson Rocha</t>
+  </si>
+  <si>
+    <t>INSERCO Brasil Serviços Industriais Ltda</t>
+  </si>
+  <si>
+    <t>Avenida Francisco Nobre, 280 – Bloco 12 – Sala 02 /    CEP 13.212-241 – Medeiros – Jundiaí – SP - BRASIL</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Mühlbacher Str. 1,</t>
+  </si>
+  <si>
+    <t>01561 Lampertswalde</t>
+  </si>
+  <si>
+    <t>Nikolay Bankov</t>
+  </si>
+  <si>
+    <t>Kronospan Bulgaria EOOD</t>
+  </si>
+  <si>
+    <t>Severozapadna Promishlena Zona</t>
+  </si>
+  <si>
+    <t>8000 Bourgas</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Mark Bircham</t>
+  </si>
+  <si>
+    <t>Kaethe-Kollwitz Str. 5a</t>
+  </si>
+  <si>
+    <t>83024 Rosenheim</t>
+  </si>
+  <si>
+    <t>Ing. Giancarlo Bellucci</t>
+  </si>
+  <si>
+    <t>Neodecortech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neodecortech SpA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viale Europa unita snc / Frazione Casoli zona Industriale </t>
+  </si>
+  <si>
+    <t>64032 ATRI</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <r>
+      <t>Stephen Canary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Panolam Surface Systems </t>
+  </si>
+  <si>
+    <t>1 Corporate Drive, Suite 725 | Shelton</t>
+  </si>
+  <si>
+    <t>CT 06484</t>
+  </si>
+  <si>
+    <t>Hazelett</t>
+  </si>
+  <si>
+    <t>Vermont 05446 USA</t>
+  </si>
+  <si>
+    <t>Hazelett Corporation</t>
+  </si>
+  <si>
+    <t>Zach Centerbar</t>
+  </si>
+  <si>
+    <t>135 West Lakeshore Drive / PO Box 600 / Colchester</t>
+  </si>
+  <si>
+    <t>No.1, Jalan Teknologi Utama / Kawasan Perindustrian Mengkibol</t>
+  </si>
+  <si>
+    <t>Polytec Laminates Sdn Bhd</t>
+  </si>
+  <si>
+    <t>Mr. Tang</t>
+  </si>
+  <si>
+    <t>PURICELLI s.r.l.</t>
+  </si>
+  <si>
+    <t>Via Nuova Valassina, 3</t>
+  </si>
+  <si>
+    <t>23845 Costa Masnaga (LC</t>
+  </si>
+  <si>
+    <t>Mr. Roberto Soffiatti</t>
+  </si>
+  <si>
+    <t>Anna Denner</t>
+  </si>
+  <si>
+    <t>Samara plant of decorative laminates, LLC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +592,15 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Verdana"/>
+      <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2F5597"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,12 +631,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -272,6 +676,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A8B42081-02C3-4BF1-8DD1-81A2A7957A5C}" name="Tabelle3" displayName="Tabelle3" ref="A1:F46" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:F46" xr:uid="{A8B42081-02C3-4BF1-8DD1-81A2A7957A5C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F46">
+    <sortCondition ref="A1:A46"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{DC1CE56E-A2EF-469A-A2A1-86BCA1636BDD}" name="Kunde" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{58D5E01E-4E54-49E3-AB42-A00CBC01D600}" name="Name"/>
+    <tableColumn id="3" xr3:uid="{2CA52E65-2CA7-4282-8E2E-5AE3FE7F13ED}" name="Firma"/>
+    <tableColumn id="4" xr3:uid="{1638A3D0-F74C-4C96-8516-3F9DF0915AE6}" name="Straße"/>
+    <tableColumn id="5" xr3:uid="{93F43449-81BC-4D31-876F-66509C9DE09C}" name="Postleitzahl"/>
+    <tableColumn id="6" xr3:uid="{21F23B48-3100-455A-A0B4-C6F03279808F}" name="Land" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9B32AE7F-6B70-4B39-A694-AA9B6C1CB081}" name="Tabelle1" displayName="Tabelle1" ref="B4:B36" totalsRowShown="0">
   <autoFilter ref="B4:B36" xr:uid="{9B32AE7F-6B70-4B39-A694-AA9B6C1CB081}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:B27">
@@ -284,7 +706,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7113548C-DACC-48AF-B37C-EB2B465895CE}" name="Tabelle2" displayName="Tabelle2" ref="D4:D37" totalsRowShown="0">
   <autoFilter ref="D4:D37" xr:uid="{7113548C-DACC-48AF-B37C-EB2B465895CE}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:D27">
@@ -594,19 +1016,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4957CCC-88FC-4002-981F-ECC1B3231AC8}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -632,232 +1055,911 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="F37" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -865,13 +1967,13 @@
           <x14:formula1>
             <xm:f>Dropdown!$B$5:$B$36</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A37</xm:sqref>
+          <xm:sqref>A2:A46</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{182C7393-5366-4655-9ACA-27E66765608F}">
           <x14:formula1>
             <xm:f>Dropdown!$D$5:$D$37</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F37</xm:sqref>
+          <xm:sqref>F2:F46</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -881,23 +1983,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1B3B3F-19B7-4A6F-B174-C31B51A3921B}">
-  <dimension ref="B4:D29"/>
+  <dimension ref="B4:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -905,7 +2008,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -913,7 +2016,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -921,7 +2024,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -929,7 +2032,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -937,7 +2040,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -945,7 +2048,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -953,7 +2056,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -961,92 +2064,134 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>21</v>
       </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>22</v>
       </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>23</v>
       </c>
+      <c r="D15" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="D21" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Excel/Kundendatenbank.xlsx
+++ b/Assets/Excel/Kundendatenbank.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\PB Programme\Projekte\TeamProjects ItchIO\Kundendatenbank\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77270DD1-61D4-4A93-B98D-5B7E5BB19298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A3E68F-D583-4533-B088-CC62F535F708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{847D2D25-995A-4D6D-9549-AA573668EDDE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="174">
   <si>
     <t>Kunde</t>
   </si>
@@ -568,12 +568,15 @@
   <si>
     <t>Samara plant of decorative laminates, LLC</t>
   </si>
+  <si>
+    <t>China</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,13 +597,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF2F5597"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -623,7 +619,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -631,12 +627,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -656,12 +657,6 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -676,18 +671,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A8B42081-02C3-4BF1-8DD1-81A2A7957A5C}" name="Tabelle3" displayName="Tabelle3" ref="A1:F46" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A8B42081-02C3-4BF1-8DD1-81A2A7957A5C}" name="Tabelle3" displayName="Tabelle3" ref="A1:F46" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:F46" xr:uid="{A8B42081-02C3-4BF1-8DD1-81A2A7957A5C}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F46">
-    <sortCondition ref="A1:A46"/>
+    <sortCondition ref="F1:F46"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{DC1CE56E-A2EF-469A-A2A1-86BCA1636BDD}" name="Kunde" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{DC1CE56E-A2EF-469A-A2A1-86BCA1636BDD}" name="Kunde" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{58D5E01E-4E54-49E3-AB42-A00CBC01D600}" name="Name"/>
     <tableColumn id="3" xr3:uid="{2CA52E65-2CA7-4282-8E2E-5AE3FE7F13ED}" name="Firma"/>
     <tableColumn id="4" xr3:uid="{1638A3D0-F74C-4C96-8516-3F9DF0915AE6}" name="Straße"/>
     <tableColumn id="5" xr3:uid="{93F43449-81BC-4D31-876F-66509C9DE09C}" name="Postleitzahl"/>
-    <tableColumn id="6" xr3:uid="{21F23B48-3100-455A-A0B4-C6F03279808F}" name="Land" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{21F23B48-3100-455A-A0B4-C6F03279808F}" name="Land" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -709,7 +704,7 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7113548C-DACC-48AF-B37C-EB2B465895CE}" name="Tabelle2" displayName="Tabelle2" ref="D4:D37" totalsRowShown="0">
   <autoFilter ref="D4:D37" xr:uid="{7113548C-DACC-48AF-B37C-EB2B465895CE}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:D27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D5:D33">
     <sortCondition ref="D4:D37"/>
   </sortState>
   <tableColumns count="1">
@@ -1018,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4957CCC-88FC-4002-981F-ECC1B3231AC8}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,83 +1050,83 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>64</v>
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>65</v>
+        <v>142</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1139,16 +1134,16 @@
         <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>37</v>
@@ -1159,16 +1154,16 @@
         <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>37</v>
@@ -1179,10 +1174,10 @@
         <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>66</v>
@@ -1196,39 +1191,39 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>37</v>
@@ -1239,7 +1234,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>85</v>
@@ -1259,16 +1254,16 @@
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>37</v>
@@ -1279,16 +1274,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>37</v>
@@ -1299,16 +1294,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>37</v>
@@ -1319,16 +1314,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>37</v>
@@ -1339,16 +1334,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>37</v>
@@ -1359,16 +1354,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>37</v>
@@ -1379,7 +1374,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>102</v>
@@ -1396,22 +1391,22 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>112</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1436,79 +1431,79 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>161</v>
+        <v>90</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>160</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>132</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>37</v>
@@ -1516,19 +1511,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>90</v>
+        <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>37</v>
@@ -1536,19 +1531,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>37</v>
@@ -1556,199 +1551,199 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>48</v>
+        <v>153</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>167</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>141</v>
+        <v>49</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>145</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>154</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>50</v>
@@ -1756,202 +1751,202 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>79</v>
+        <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>80</v>
+        <v>9</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>165</v>
+        <v>43</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>164</v>
+        <v>40</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>170</v>
+        <v>45</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>154</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>113</v>
+        <v>162</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>116</v>
+        <v>163</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1986,7 +1981,7 @@
   <dimension ref="B4:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2008,7 +2003,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -2016,7 +2011,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -2024,7 +2019,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -2032,7 +2027,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -2040,7 +2035,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -2048,7 +2043,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -2056,7 +2051,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -2064,7 +2059,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -2072,7 +2067,7 @@
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
@@ -2088,7 +2083,7 @@
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -2096,7 +2091,7 @@
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>118</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -2104,7 +2099,7 @@
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
@@ -2112,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
@@ -2120,7 +2115,7 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
@@ -2128,20 +2123,23 @@
         <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>160</v>
+      <c r="D21" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">

--- a/Assets/Excel/Kundendatenbank.xlsx
+++ b/Assets/Excel/Kundendatenbank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\PB Programme\Projekte\TeamProjects ItchIO\Kundendatenbank\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A3E68F-D583-4533-B088-CC62F535F708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06B140C-87A7-4F63-AE69-7243FC05AE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{847D2D25-995A-4D6D-9549-AA573668EDDE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{847D2D25-995A-4D6D-9549-AA573668EDDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Datenbank" sheetId="1" r:id="rId1"/>
@@ -330,9 +330,6 @@
     <t>59929 Brilon</t>
   </si>
   <si>
-    <t>Herrn Veile</t>
-  </si>
-  <si>
     <t>Egger Kunststoffe GmbH &amp; Co. KG</t>
   </si>
   <si>
@@ -570,6 +567,9 @@
   </si>
   <si>
     <t>China</t>
+  </si>
+  <si>
+    <t>Veile</t>
   </si>
 </sst>
 </file>
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4957CCC-88FC-4002-981F-ECC1B3231AC8}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,22 +1071,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1094,19 +1094,19 @@
         <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1114,19 +1114,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1294,16 +1294,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>37</v>
@@ -1314,7 +1314,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>94</v>
@@ -1334,16 +1334,16 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>37</v>
@@ -1354,7 +1354,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>85</v>
@@ -1374,16 +1374,16 @@
         <v>12</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>37</v>
@@ -1394,16 +1394,16 @@
         <v>12</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>37</v>
@@ -1414,16 +1414,16 @@
         <v>21</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>121</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>122</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>37</v>
@@ -1454,7 +1454,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>90</v>
@@ -1474,7 +1474,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>90</v>
@@ -1500,10 +1500,10 @@
         <v>43</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>37</v>
@@ -1514,16 +1514,16 @@
         <v>11</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D25" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>37</v>
@@ -1614,39 +1614,39 @@
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1654,19 +1654,19 @@
         <v>29</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1686,7 +1686,7 @@
         <v>50</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1714,16 +1714,16 @@
         <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>50</v>
@@ -1734,10 +1734,10 @@
         <v>30</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>172</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>50</v>
@@ -1794,13 +1794,13 @@
         <v>28</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>58</v>
@@ -1894,19 +1894,19 @@
         <v>23</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1914,39 +1914,39 @@
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +2011,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -2019,7 +2019,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
@@ -2027,7 +2027,7 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -2035,7 +2035,7 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -2051,7 +2051,7 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -2059,7 +2059,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
@@ -2115,12 +2115,12 @@
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
@@ -2131,7 +2131,7 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
@@ -2139,7 +2139,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
@@ -2184,12 +2184,12 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
